--- a/schliessanlagen-konfigurator/publish/wwwroot/Orders/CES_schliessplan_DE_schliessanlagen.xlsx
+++ b/schliessanlagen-konfigurator/publish/wwwroot/Orders/CES_schliessplan_DE_schliessanlagen.xlsx
@@ -678,7 +678,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t xml:space="preserve">Schließplan</t>
   </si>
@@ -798,9 +798,6 @@
   </si>
   <si>
     <t xml:space="preserve">Teile-Nr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
   </si>
 </sst>
 </file>
@@ -1111,10 +1108,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="Q11" activeCellId="0" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1124,7 +1121,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="2" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="1" width="6.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="29.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="29.45"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="31.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="11" style="1" width="11.43"/>
@@ -1151,9 +1148,7 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
-      <c r="Q1" s="8" t="s">
-        <v>2</v>
-      </c>
+      <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
       <c r="T1" s="8"/>
@@ -1641,9 +1636,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="8" t="s">
-        <v>2</v>
-      </c>
+      <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
@@ -1983,9 +1976,7 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="Q11" s="6"/>
       <c r="AMI11" s="6"/>
       <c r="AMJ11" s="6"/>
     </row>
@@ -2006,9 +1997,7 @@
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="Q12" s="6"/>
       <c r="AMI12" s="6"/>
       <c r="AMJ12" s="6"/>
     </row>
@@ -2055,71 +2044,31 @@
       <c r="P13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="Q13" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="Q13" s="6"/>
       <c r="AMI13" s="6"/>
       <c r="AMJ13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K14" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="L14" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="O14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
-      <c r="K15" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="L15" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
-      <c r="K16" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
-      <c r="Q17" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
-      <c r="Q18" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
-      <c r="Q19" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="20"/>
